--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Slit2</t>
+  </si>
+  <si>
+    <t>Gpc1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slit2</t>
-  </si>
-  <si>
-    <t>Gpc1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H2">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J2">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N2">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O2">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P2">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q2">
-        <v>0.02300649194133333</v>
+        <v>0.3184057701511112</v>
       </c>
       <c r="R2">
-        <v>0.207058427472</v>
+        <v>2.86565193136</v>
       </c>
       <c r="S2">
-        <v>0.0001435464652330743</v>
+        <v>0.002659708641372329</v>
       </c>
       <c r="T2">
-        <v>0.0001435464652330743</v>
+        <v>0.002659708641372328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H3">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J3">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
         <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P3">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q3">
-        <v>0.4668112114293332</v>
+        <v>1.475772511893333</v>
       </c>
       <c r="R3">
-        <v>4.201300902863999</v>
+        <v>13.28195260704</v>
       </c>
       <c r="S3">
-        <v>0.002912616991009478</v>
+        <v>0.01232743018670684</v>
       </c>
       <c r="T3">
-        <v>0.002912616991009477</v>
+        <v>0.01232743018670683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H4">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J4">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N4">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P4">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q4">
-        <v>0.1082020572764444</v>
+        <v>0.6147089951644444</v>
       </c>
       <c r="R4">
-        <v>0.9738185154879999</v>
+        <v>5.53238095648</v>
       </c>
       <c r="S4">
-        <v>0.0006751147846697786</v>
+        <v>0.005134790194261397</v>
       </c>
       <c r="T4">
-        <v>0.0006751147846697786</v>
+        <v>0.005134790194261396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H5">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J5">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N5">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P5">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q5">
-        <v>2.899796405318221</v>
+        <v>4.905868045688889</v>
       </c>
       <c r="R5">
-        <v>26.098167647864</v>
+        <v>44.1528124112</v>
       </c>
       <c r="S5">
-        <v>0.01809295936731509</v>
+        <v>0.04097972102816674</v>
       </c>
       <c r="T5">
-        <v>0.01809295936731509</v>
+        <v>0.04097972102816673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H6">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J6">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N6">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P6">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q6">
-        <v>0.1734420805288889</v>
+        <v>0.6299434777777778</v>
       </c>
       <c r="R6">
-        <v>1.56097872476</v>
+        <v>5.669491300000001</v>
       </c>
       <c r="S6">
-        <v>0.001082172703516889</v>
+        <v>0.005262046949169731</v>
       </c>
       <c r="T6">
-        <v>0.00108217270351689</v>
+        <v>0.005262046949169729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07387466666666666</v>
+        <v>0.2335466666666667</v>
       </c>
       <c r="H7">
-        <v>0.221624</v>
+        <v>0.70064</v>
       </c>
       <c r="I7">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179069</v>
       </c>
       <c r="J7">
-        <v>0.02329999915893588</v>
+        <v>0.07103031775179068</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N7">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P7">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q7">
-        <v>0.06308130699288887</v>
+        <v>0.5586623104</v>
       </c>
       <c r="R7">
-        <v>0.5677317629359999</v>
+        <v>5.0279607936</v>
       </c>
       <c r="S7">
-        <v>0.0003935888471915735</v>
+        <v>0.004666620752113668</v>
       </c>
       <c r="T7">
-        <v>0.0003935888471915735</v>
+        <v>0.004666620752113667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -918,13 +918,13 @@
         <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J8">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N8">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O8">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P8">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q8">
-        <v>0.7906741771580001</v>
+        <v>3.461385291755667</v>
       </c>
       <c r="R8">
-        <v>7.116067594422001</v>
+        <v>31.152467625801</v>
       </c>
       <c r="S8">
-        <v>0.004933324192646241</v>
+        <v>0.02891366060116451</v>
       </c>
       <c r="T8">
-        <v>0.00493332419264624</v>
+        <v>0.0289136606011645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -980,13 +980,13 @@
         <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J9">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
         <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P9">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q9">
         <v>16.043105199446</v>
@@ -1013,10 +1013,10 @@
         <v>144.387946795014</v>
       </c>
       <c r="S9">
-        <v>0.1000991828139342</v>
+        <v>0.1340113450618726</v>
       </c>
       <c r="T9">
-        <v>0.1000991828139342</v>
+        <v>0.1340113450618726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J10">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N10">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P10">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q10">
-        <v>3.718627456198667</v>
+        <v>6.682494081568666</v>
       </c>
       <c r="R10">
-        <v>33.467647105788</v>
+        <v>60.142446734118</v>
       </c>
       <c r="S10">
-        <v>0.02320196526342041</v>
+        <v>0.05582024234746927</v>
       </c>
       <c r="T10">
-        <v>0.02320196526342041</v>
+        <v>0.05582024234746926</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,13 +1104,13 @@
         <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J11">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N11">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P11">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q11">
-        <v>99.65857213465434</v>
+        <v>53.33163242796332</v>
       </c>
       <c r="R11">
-        <v>896.9271492118891</v>
+        <v>479.9846918516699</v>
       </c>
       <c r="S11">
-        <v>0.6218086528178406</v>
+        <v>0.4454900536501842</v>
       </c>
       <c r="T11">
-        <v>0.6218086528178406</v>
+        <v>0.4454900536501842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1166,13 +1166,13 @@
         <v>2.538883</v>
       </c>
       <c r="H12">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I12">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J12">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N12">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P12">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q12">
-        <v>5.960759887098334</v>
+        <v>6.848107958541666</v>
       </c>
       <c r="R12">
-        <v>53.64683898388501</v>
+        <v>61.632971626875</v>
       </c>
       <c r="S12">
-        <v>0.03719150290613478</v>
+        <v>0.05720364899712645</v>
       </c>
       <c r="T12">
-        <v>0.03719150290613478</v>
+        <v>0.05720364899712643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1228,13 +1228,13 @@
         <v>2.538883</v>
       </c>
       <c r="H13">
-        <v>7.616649000000001</v>
+        <v>7.616649</v>
       </c>
       <c r="I13">
-        <v>0.8007612681564715</v>
+        <v>0.772169728639328</v>
       </c>
       <c r="J13">
-        <v>0.8007612681564715</v>
+        <v>0.7721697286393279</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N13">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P13">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q13">
-        <v>2.167942884462333</v>
+        <v>6.07321124664</v>
       </c>
       <c r="R13">
-        <v>19.511485960161</v>
+        <v>54.65890121976</v>
       </c>
       <c r="S13">
-        <v>0.01352664016249527</v>
+        <v>0.05073077798151092</v>
       </c>
       <c r="T13">
-        <v>0.01352664016249527</v>
+        <v>0.05073077798151091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H14">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J14">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.311426</v>
+        <v>1.363349666666667</v>
       </c>
       <c r="N14">
-        <v>0.9342780000000001</v>
+        <v>4.090049</v>
       </c>
       <c r="O14">
-        <v>0.006160792721660774</v>
+        <v>0.03744469580815407</v>
       </c>
       <c r="P14">
-        <v>0.006160792721660773</v>
+        <v>0.03744469580815406</v>
       </c>
       <c r="Q14">
-        <v>7.785650000000001E-06</v>
+        <v>0.7028831007480001</v>
       </c>
       <c r="R14">
-        <v>7.007085E-05</v>
+        <v>6.325947906732001</v>
       </c>
       <c r="S14">
-        <v>4.857770319315857E-08</v>
+        <v>0.005871326565617231</v>
       </c>
       <c r="T14">
-        <v>4.857770319315856E-08</v>
+        <v>0.005871326565617228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H15">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J15">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.318961999999999</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
         <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="P15">
-        <v>0.1250050255856961</v>
+        <v>0.173551668877281</v>
       </c>
       <c r="Q15">
-        <v>0.00015797405</v>
+        <v>3.257778772872</v>
       </c>
       <c r="R15">
-        <v>0.00142176645</v>
+        <v>29.320008955848</v>
       </c>
       <c r="S15">
-        <v>9.856616355887036E-07</v>
+        <v>0.0272128936287016</v>
       </c>
       <c r="T15">
-        <v>9.856616355887034E-07</v>
+        <v>0.02721289362870159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H16">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I16">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J16">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.464670666666667</v>
+        <v>2.632060666666666</v>
       </c>
       <c r="N16">
-        <v>4.394012</v>
+        <v>7.896182</v>
       </c>
       <c r="O16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="P16">
-        <v>0.02897488450813366</v>
+        <v>0.07229012000487563</v>
       </c>
       <c r="Q16">
-        <v>3.661676666666666E-05</v>
+        <v>1.356974669064</v>
       </c>
       <c r="R16">
-        <v>0.0003295509</v>
+        <v>12.212772021576</v>
       </c>
       <c r="S16">
-        <v>2.284662710276567E-07</v>
+        <v>0.01133508746314496</v>
       </c>
       <c r="T16">
-        <v>2.284662710276567E-07</v>
+        <v>0.01133508746314496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H17">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I17">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J17">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>39.25292033333333</v>
+        <v>21.00594333333333</v>
       </c>
       <c r="N17">
-        <v>117.758761</v>
+        <v>63.01783</v>
       </c>
       <c r="O17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="P17">
-        <v>0.7765218892884028</v>
+        <v>0.5769328129907405</v>
       </c>
       <c r="Q17">
-        <v>0.000981323008333333</v>
+        <v>10.82974012116</v>
       </c>
       <c r="R17">
-        <v>0.008831907074999999</v>
+        <v>97.46766109043999</v>
       </c>
       <c r="S17">
-        <v>6.122856516210481E-06</v>
+        <v>0.0904630383123895</v>
       </c>
       <c r="T17">
-        <v>6.122856516210481E-06</v>
+        <v>0.09046303831238948</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H18">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I18">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J18">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.347788333333333</v>
+        <v>2.697291666666667</v>
       </c>
       <c r="N18">
-        <v>7.043365000000001</v>
+        <v>8.091875</v>
       </c>
       <c r="O18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037367</v>
       </c>
       <c r="P18">
-        <v>0.04644518208498994</v>
+        <v>0.07408170364037366</v>
       </c>
       <c r="Q18">
-        <v>5.869470833333333E-05</v>
+        <v>1.3906049025</v>
       </c>
       <c r="R18">
-        <v>0.000528252375</v>
+        <v>12.5154441225</v>
       </c>
       <c r="S18">
-        <v>3.662191493871003E-07</v>
+        <v>0.01161600769407748</v>
       </c>
       <c r="T18">
-        <v>3.662191493871003E-07</v>
+        <v>0.01161600769407748</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.5E-05</v>
+        <v>0.515556</v>
       </c>
       <c r="H19">
-        <v>7.499999999999999E-05</v>
+        <v>1.546668</v>
       </c>
       <c r="I19">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="J19">
-        <v>7.884976071725946E-06</v>
+        <v>0.1567999536088813</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8538963333333333</v>
+        <v>2.39208</v>
       </c>
       <c r="N19">
-        <v>2.561689</v>
+        <v>7.17624</v>
       </c>
       <c r="O19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="P19">
-        <v>0.01689222581111667</v>
+        <v>0.06569899867857512</v>
       </c>
       <c r="Q19">
-        <v>2.134740833333333E-05</v>
+        <v>1.23325119648</v>
       </c>
       <c r="R19">
-        <v>0.000192126675</v>
+        <v>11.09926076832</v>
       </c>
       <c r="S19">
-        <v>1.331947963188464E-07</v>
+        <v>0.01030159994495053</v>
       </c>
       <c r="T19">
-        <v>1.331947963188464E-07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.557804</v>
-      </c>
-      <c r="H20">
-        <v>1.673412</v>
-      </c>
-      <c r="I20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J20">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.311426</v>
-      </c>
-      <c r="N20">
-        <v>0.9342780000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.006160792721660774</v>
-      </c>
-      <c r="P20">
-        <v>0.006160792721660773</v>
-      </c>
-      <c r="Q20">
-        <v>0.173714668504</v>
-      </c>
-      <c r="R20">
-        <v>1.563432016536</v>
-      </c>
-      <c r="S20">
-        <v>0.001083873486078265</v>
-      </c>
-      <c r="T20">
-        <v>0.001083873486078265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.557804</v>
-      </c>
-      <c r="H21">
-        <v>1.673412</v>
-      </c>
-      <c r="I21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J21">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.318961999999999</v>
-      </c>
-      <c r="N21">
-        <v>18.956886</v>
-      </c>
-      <c r="O21">
-        <v>0.1250050255856961</v>
-      </c>
-      <c r="P21">
-        <v>0.1250050255856961</v>
-      </c>
-      <c r="Q21">
-        <v>3.524742279447999</v>
-      </c>
-      <c r="R21">
-        <v>31.72268051503199</v>
-      </c>
-      <c r="S21">
-        <v>0.02199224011911685</v>
-      </c>
-      <c r="T21">
-        <v>0.02199224011911684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.557804</v>
-      </c>
-      <c r="H22">
-        <v>1.673412</v>
-      </c>
-      <c r="I22">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J22">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.464670666666667</v>
-      </c>
-      <c r="N22">
-        <v>4.394012</v>
-      </c>
-      <c r="O22">
-        <v>0.02897488450813366</v>
-      </c>
-      <c r="P22">
-        <v>0.02897488450813366</v>
-      </c>
-      <c r="Q22">
-        <v>0.8169991565493333</v>
-      </c>
-      <c r="R22">
-        <v>7.352992408944</v>
-      </c>
-      <c r="S22">
-        <v>0.005097575993772441</v>
-      </c>
-      <c r="T22">
-        <v>0.005097575993772441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.557804</v>
-      </c>
-      <c r="H23">
-        <v>1.673412</v>
-      </c>
-      <c r="I23">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J23">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.25292033333333</v>
-      </c>
-      <c r="N23">
-        <v>117.758761</v>
-      </c>
-      <c r="O23">
-        <v>0.7765218892884028</v>
-      </c>
-      <c r="P23">
-        <v>0.7765218892884028</v>
-      </c>
-      <c r="Q23">
-        <v>21.89543597361466</v>
-      </c>
-      <c r="R23">
-        <v>197.058923762532</v>
-      </c>
-      <c r="S23">
-        <v>0.1366141542467308</v>
-      </c>
-      <c r="T23">
-        <v>0.1366141542467308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.557804</v>
-      </c>
-      <c r="H24">
-        <v>1.673412</v>
-      </c>
-      <c r="I24">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J24">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.347788333333333</v>
-      </c>
-      <c r="N24">
-        <v>7.043365000000001</v>
-      </c>
-      <c r="O24">
-        <v>0.04644518208498994</v>
-      </c>
-      <c r="P24">
-        <v>0.04644518208498994</v>
-      </c>
-      <c r="Q24">
-        <v>1.309605723486667</v>
-      </c>
-      <c r="R24">
-        <v>11.78645151138</v>
-      </c>
-      <c r="S24">
-        <v>0.008171140256188883</v>
-      </c>
-      <c r="T24">
-        <v>0.008171140256188883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.557804</v>
-      </c>
-      <c r="H25">
-        <v>1.673412</v>
-      </c>
-      <c r="I25">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="J25">
-        <v>0.1759308477085208</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.8538963333333333</v>
-      </c>
-      <c r="N25">
-        <v>2.561689</v>
-      </c>
-      <c r="O25">
-        <v>0.01689222581111667</v>
-      </c>
-      <c r="P25">
-        <v>0.01689222581111667</v>
-      </c>
-      <c r="Q25">
-        <v>0.4763067903186666</v>
-      </c>
-      <c r="R25">
-        <v>4.286761112868</v>
-      </c>
-      <c r="S25">
-        <v>0.002971863606633512</v>
-      </c>
-      <c r="T25">
-        <v>0.002971863606633512</v>
+        <v>0.01030159994495053</v>
       </c>
     </row>
   </sheetData>
